--- a/data/trans_bre/P1412-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1412-Dificultad-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-0.1510042131772367</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.04000280653506105</v>
+        <v>0.04000280653506071</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.3465430252025374</v>
@@ -627,7 +627,7 @@
         <v>-0.1700649166947834</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0292670291281473</v>
+        <v>0.02926702912814704</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.178649222943366</v>
+        <v>-1.100849887346853</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9207832591399944</v>
+        <v>-0.91332209276273</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.309453923580747</v>
+        <v>-1.280228712457111</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.8431746078706578</v>
+        <v>-0.8166277723681075</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7300368710531585</v>
+        <v>-0.7307880309839284</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6152071666180844</v>
+        <v>-0.5947144945968277</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.403655878863129</v>
+        <v>0.4465012862621084</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6314474290270782</v>
+        <v>0.5994208365250971</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.110217001083801</v>
+        <v>1.166587897468093</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.017241265985329</v>
+        <v>1.00806304670777</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.605075585359505</v>
+        <v>1.325748860896017</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.538695823126322</v>
+        <v>1.726486619867766</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.9826745308753984</v>
+        <v>-0.994445846624414</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.093761478047101</v>
+        <v>-1.11845594222174</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.599531571695599</v>
+        <v>-1.662286132252372</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6909942373353507</v>
+        <v>-0.6961150712659704</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8952658638596347</v>
+        <v>-0.9096182296371331</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8558400547231465</v>
+        <v>-0.8758664801671658</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8189326656489462</v>
+        <v>0.8834258175212057</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3354770014970778</v>
+        <v>0.3103690082130255</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.1466922229496044</v>
+        <v>-0.1421502584342765</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.168763225354273</v>
+        <v>2.188896851941621</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.314640736482638</v>
+        <v>0.937744751705814</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.09445437070413767</v>
+        <v>-0.1396530521912366</v>
       </c>
     </row>
     <row r="10">
@@ -802,18 +802,18 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01473442877948587</v>
+        <v>0.009993517865763342</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.031423949567696</v>
+        <v>-1.12140381623851</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.081749340237479</v>
+        <v>-1.097097370130746</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.9405706932729934</v>
+        <v>-0.9381986010947599</v>
       </c>
     </row>
     <row r="12">
@@ -824,18 +824,18 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.201444462969416</v>
+        <v>1.161612761151676</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3738363612841708</v>
+        <v>0.2936231602758362</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.03444644212317946</v>
+        <v>-0.03879157758021074</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>0.1890621863178783</v>
+        <v>0.1340259122604682</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         <v>0.02713050662083299</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-0.2015908376061094</v>
+        <v>-0.2015908376061092</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1305290248686429</v>
@@ -865,7 +865,7 @@
         <v>0.04217077024854845</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2640201105730685</v>
+        <v>-0.2640201105730683</v>
       </c>
     </row>
     <row r="14">
@@ -876,18 +876,18 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.129095682769626</v>
+        <v>-1.166758779700825</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.032851496116772</v>
+        <v>-0.9484804853349101</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.8298090194344571</v>
+        <v>-0.8055954389946914</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.7741346400943947</v>
+        <v>-0.7237882451166928</v>
       </c>
     </row>
     <row r="15">
@@ -898,18 +898,18 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.025147623413192</v>
+        <v>0.9904277006042409</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.124992962482326</v>
+        <v>1.113168279856484</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4001621119688313</v>
+        <v>0.3993598447157736</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>1.124571091724154</v>
+        <v>1.110096827513668</v>
       </c>
     </row>
     <row r="16">
@@ -950,22 +950,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.35966249728803</v>
+        <v>-0.4125337351748136</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6142211975358467</v>
+        <v>-0.613975298450313</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7474319467116057</v>
+        <v>-0.7471821581954735</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.4164418389347876</v>
+        <v>-0.4467861586055304</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6202294481621694</v>
+        <v>-0.6035856603469394</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6292279041165021</v>
+        <v>-0.6357908131747378</v>
       </c>
     </row>
     <row r="18">
@@ -976,22 +976,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4373237926943521</v>
+        <v>0.4186805344296621</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1525400891748035</v>
+        <v>0.178184095386293</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.03741145578712345</v>
+        <v>-0.05158246583136945</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.9485616632620893</v>
+        <v>0.9529230111036603</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3220888585555109</v>
+        <v>0.3535543728586594</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.04901979297054903</v>
+        <v>-0.05493560507025688</v>
       </c>
     </row>
     <row r="19">
